--- a/SMTO_2015/Location_Choice_Logit/Proposed/Full_Results.xlsx
+++ b/SMTO_2015/Location_Choice_Logit/Proposed/Full_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\Ethan\TMG\Research\PORPOS-TMG\SMTO_2015\Location_Choice_Logit\Closest_Dummies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\Ethan\TMG\Summer 2020\Research\PORPOS-TMG\SMTO_2015\Location_Choice_Logit\Proposed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDD4373-F7D2-4BDA-B36C-020F0283C302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED70D46-6A4E-4B0B-A464-7EC04F1FA797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
   <si>
     <t>Dist</t>
   </si>
@@ -114,18 +114,35 @@
   </si>
   <si>
     <t>Combined</t>
+  </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>Observed</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,10 +174,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -172,9 +190,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -452,20 +473,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>24</v>
       </c>
@@ -482,7 +503,7 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -508,7 +529,7 @@
       </c>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -534,7 +555,7 @@
       </c>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -567,7 +588,7 @@
       </c>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -601,7 +622,7 @@
       <c r="K5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -635,7 +656,7 @@
       <c r="L6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -667,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -692,7 +713,7 @@
       </c>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -711,7 +732,7 @@
       </c>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -728,7 +749,7 @@
       </c>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -746,7 +767,7 @@
       <c r="L11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -761,7 +782,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -776,7 +797,7 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -790,11 +811,11 @@
         <v>-19091.03</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -822,9 +843,15 @@
       <c r="I18" t="s">
         <v>21</v>
       </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>15</v>
       </c>
@@ -849,10 +876,17 @@
       <c r="I19">
         <v>179</v>
       </c>
-      <c r="J19" s="3"/>
+      <c r="J19" s="9">
+        <f>SUM(C19:I19)</f>
+        <v>930</v>
+      </c>
+      <c r="K19" s="10">
+        <f>C19/J19</f>
+        <v>0.43440860215053761</v>
+      </c>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>16</v>
       </c>
@@ -877,11 +911,17 @@
       <c r="I20">
         <v>96</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="J20" s="9">
+        <f t="shared" ref="J20:J26" si="0">SUM(C20:I20)</f>
+        <v>455</v>
+      </c>
+      <c r="K20" s="10">
+        <f>D20/J20</f>
+        <v>0</v>
+      </c>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>17</v>
       </c>
@@ -906,9 +946,17 @@
       <c r="I21">
         <v>729</v>
       </c>
+      <c r="J21" s="9">
+        <f t="shared" si="0"/>
+        <v>2708</v>
+      </c>
+      <c r="K21" s="10">
+        <f>E21/J21</f>
+        <v>0.11742983751846381</v>
+      </c>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>18</v>
       </c>
@@ -933,9 +981,17 @@
       <c r="I22">
         <v>227</v>
       </c>
+      <c r="J22" s="9">
+        <f t="shared" si="0"/>
+        <v>1074</v>
+      </c>
+      <c r="K22" s="10">
+        <f>F22/J22</f>
+        <v>0.17132216014897581</v>
+      </c>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>19</v>
       </c>
@@ -960,9 +1016,17 @@
       <c r="I23">
         <v>834</v>
       </c>
+      <c r="J23" s="9">
+        <f t="shared" si="0"/>
+        <v>5911</v>
+      </c>
+      <c r="K23" s="10">
+        <f>G23/J23</f>
+        <v>0.72001353408898661</v>
+      </c>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>20</v>
       </c>
@@ -987,9 +1051,17 @@
       <c r="I24">
         <v>88</v>
       </c>
+      <c r="J24" s="9">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="K24" s="10">
+        <f>H24/J24</f>
+        <v>0</v>
+      </c>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>21</v>
       </c>
@@ -1014,221 +1086,380 @@
       <c r="I25" s="5">
         <v>1564</v>
       </c>
+      <c r="J25" s="9">
+        <f t="shared" si="0"/>
+        <v>3084</v>
+      </c>
+      <c r="K25" s="10">
+        <f>I25/J25</f>
+        <v>0.50713359273670555</v>
+      </c>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <f>SUM(C19:C25)</f>
+        <v>1055</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:I26" si="1">SUM(D19:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>988</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>312</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>8405</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>3717</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="0"/>
+        <v>14477</v>
+      </c>
+      <c r="K26" s="10">
+        <f>SUM(C19,D20,E21,F22,G23,H24,I25)/J26</f>
+        <v>0.46459901913379842</v>
+      </c>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" t="s">
         <v>22</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C30" t="s">
         <v>15</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D30" t="s">
         <v>16</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E30" t="s">
         <v>17</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F30" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H30" t="s">
         <v>20</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I30" t="s">
         <v>21</v>
       </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
+      <c r="J30" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C31" s="7">
         <v>271.30819000000002</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D31" s="6">
         <v>26.276589999999999</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E31" s="6">
         <v>166.05668</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F31" s="6">
         <v>19.933070000000001</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G31" s="6">
         <v>277.47370000000001</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H31" s="6">
         <v>11.877129999999999</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I31" s="6">
         <v>157.07470000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
+      <c r="J31" s="4">
+        <f>SUM(C31:I31)</f>
+        <v>930.00006000000008</v>
+      </c>
+      <c r="K31" s="10">
+        <f>C31/J31</f>
+        <v>0.29172921773789995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C32" s="6">
         <v>23.246320000000001</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D32" s="7">
         <v>19.512547000000001</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E32" s="6">
         <v>116.07352</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F32" s="6">
         <v>24.194009999999999</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G32" s="6">
         <v>190.05179999999999</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H32" s="6">
         <v>8.6875999999999998</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I32" s="6">
         <v>73.234219999999993</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
+      <c r="J32" s="4">
+        <f t="shared" ref="J32:J38" si="2">SUM(C32:I32)</f>
+        <v>455.00001699999996</v>
+      </c>
+      <c r="K32" s="10">
+        <f>D32/J32</f>
+        <v>4.2884717079032554E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C33" s="6">
         <v>166.86411000000001</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D33" s="6">
         <v>90.898803999999998</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E33" s="7">
         <v>687.77436</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F33" s="6">
         <v>173.40151</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G33" s="6">
         <v>997.22239999999999</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H33" s="6">
         <v>58.170369999999998</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I33" s="6">
         <v>533.66845000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
+      <c r="J33" s="4">
+        <f t="shared" si="2"/>
+        <v>2708.000004</v>
+      </c>
+      <c r="K33" s="10">
+        <f>E33/J33</f>
+        <v>0.25397871454360604</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C34" s="6">
         <v>18.279340000000001</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D34" s="6">
         <v>29.532311</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E34" s="6">
         <v>224.72981999999999</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F34" s="7">
         <v>247.62723</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G34" s="6">
         <v>329.02359999999999</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H34" s="6">
         <v>31.865970000000001</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I34" s="6">
         <v>192.94171</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
+      <c r="J34" s="4">
+        <f t="shared" si="2"/>
+        <v>1073.9999809999999</v>
+      </c>
+      <c r="K34" s="10">
+        <f>F34/J34</f>
+        <v>0.23056539514035618</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C35" s="6">
         <v>227.56135</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D35" s="6">
         <v>227.118605</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E35" s="6">
         <v>1375.2195200000001</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F35" s="6">
         <v>250.38263000000001</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G35" s="7">
         <v>2897.5011</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H35" s="6">
         <v>102.19757</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I35" s="6">
         <v>831.01919999999996</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
+      <c r="J35" s="4">
+        <f t="shared" si="2"/>
+        <v>5910.9999749999997</v>
+      </c>
+      <c r="K35" s="10">
+        <f>G35/J35</f>
+        <v>0.49018797365161554</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C36" s="6">
         <v>15.41145</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D36" s="6">
         <v>9.6615190000000002</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E36" s="6">
         <v>70.985039999999998</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F36" s="6">
         <v>22.056290000000001</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G36" s="6">
         <v>114.7469</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H36" s="7">
         <v>10.70355</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I36" s="6">
         <v>71.435280000000006</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
+      <c r="J36" s="4">
+        <f t="shared" si="2"/>
+        <v>315.00002900000004</v>
+      </c>
+      <c r="K36" s="10">
+        <f>H36/J36</f>
+        <v>3.3979520681250472E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C37" s="6">
         <v>176.3569</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D37" s="6">
         <v>86.783895999999999</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E37" s="6">
         <v>595.26541999999995</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F37" s="6">
         <v>169.25530000000001</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G37" s="6">
         <v>1000.0377999999999</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H37" s="6">
         <v>66.557699999999997</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I37" s="7">
         <v>989.74298999999996</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="2"/>
+        <v>3084.0000059999993</v>
+      </c>
+      <c r="K37" s="10">
+        <f>I37/J37</f>
+        <v>0.32092833595150133</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="6">
+        <f>SUM(C31:C37)</f>
+        <v>899.02765999999997</v>
+      </c>
+      <c r="D38" s="6">
+        <f t="shared" ref="D38" si="3">SUM(D31:D37)</f>
+        <v>489.78427199999999</v>
+      </c>
+      <c r="E38" s="6">
+        <f t="shared" ref="E38" si="4">SUM(E31:E37)</f>
+        <v>3236.1043600000003</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" ref="F38" si="5">SUM(F31:F37)</f>
+        <v>906.85004000000004</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" ref="G38" si="6">SUM(G31:G37)</f>
+        <v>5806.0573000000004</v>
+      </c>
+      <c r="H38" s="6">
+        <f t="shared" ref="H38" si="7">SUM(H31:H37)</f>
+        <v>290.05989</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" ref="I38" si="8">SUM(I31:I37)</f>
+        <v>2849.1165499999997</v>
+      </c>
+      <c r="J38" s="9">
+        <f t="shared" si="2"/>
+        <v>14477.000071999999</v>
+      </c>
+      <c r="K38" s="10">
+        <f>SUM(C31,D32,E33,F34,G35,H36,I37)/J38</f>
+        <v>0.35395247230195637</v>
       </c>
     </row>
   </sheetData>
